--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -543,40 +543,40 @@
         <v>4.037942</v>
       </c>
       <c r="I2">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J2">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.94076733333334</v>
+        <v>19.84200033333333</v>
       </c>
       <c r="N2">
-        <v>35.82230200000001</v>
+        <v>59.52600099999999</v>
       </c>
       <c r="O2">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="P2">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="Q2">
-        <v>16.07204197583156</v>
+        <v>26.70694883666022</v>
       </c>
       <c r="R2">
-        <v>144.648377782484</v>
+        <v>240.362539529942</v>
       </c>
       <c r="S2">
-        <v>0.1547986932635182</v>
+        <v>0.1595634704264436</v>
       </c>
       <c r="T2">
-        <v>0.1547986932635183</v>
+        <v>0.1595634704264436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>4.037942</v>
       </c>
       <c r="I3">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J3">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>38.745718</v>
       </c>
       <c r="O3">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="P3">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="Q3">
         <v>17.38366244803955</v>
@@ -635,10 +635,10 @@
         <v>156.452962032356</v>
       </c>
       <c r="S3">
-        <v>0.1674316328402562</v>
+        <v>0.1038605168226289</v>
       </c>
       <c r="T3">
-        <v>0.1674316328402563</v>
+        <v>0.1038605168226289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>4.037942</v>
       </c>
       <c r="I4">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J4">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.061006666666666</v>
+        <v>9.805585333333333</v>
       </c>
       <c r="N4">
-        <v>27.18302</v>
+        <v>29.416756</v>
       </c>
       <c r="O4">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="P4">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="Q4">
-        <v>12.19593979387111</v>
+        <v>13.19812828401689</v>
       </c>
       <c r="R4">
-        <v>109.76345814484</v>
+        <v>118.783154556152</v>
       </c>
       <c r="S4">
-        <v>0.1174658171034369</v>
+        <v>0.07885360342025845</v>
       </c>
       <c r="T4">
-        <v>0.1174658171034369</v>
+        <v>0.07885360342025845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>4.037942</v>
       </c>
       <c r="I5">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="J5">
-        <v>0.4408299556445331</v>
+        <v>0.3424902588620627</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.08745933333333333</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N5">
-        <v>0.262378</v>
+        <v>0.079337</v>
       </c>
       <c r="O5">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="P5">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="Q5">
-        <v>0.1177185717862222</v>
+        <v>0.03559535605044445</v>
       </c>
       <c r="R5">
-        <v>1.059467146076</v>
+        <v>0.320358204454</v>
       </c>
       <c r="S5">
-        <v>0.001133812437321738</v>
+        <v>0.0002126681927318242</v>
       </c>
       <c r="T5">
-        <v>0.001133812437321739</v>
+        <v>0.0002126681927318242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H6">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I6">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J6">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>11.94076733333334</v>
+        <v>19.84200033333333</v>
       </c>
       <c r="N6">
-        <v>35.82230200000001</v>
+        <v>59.52600099999999</v>
       </c>
       <c r="O6">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="P6">
-        <v>0.3511528454031411</v>
+        <v>0.4658919963347263</v>
       </c>
       <c r="Q6">
-        <v>20.38655565357134</v>
+        <v>51.27176193133388</v>
       </c>
       <c r="R6">
-        <v>183.479000882142</v>
+        <v>461.4458573820049</v>
       </c>
       <c r="S6">
-        <v>0.1963541521396228</v>
+        <v>0.3063285259082827</v>
       </c>
       <c r="T6">
-        <v>0.1963541521396228</v>
+        <v>0.3063285259082827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H7">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I7">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J7">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>38.745718</v>
       </c>
       <c r="O7">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="P7">
-        <v>0.3798100167568152</v>
+        <v>0.3032510097300563</v>
       </c>
       <c r="Q7">
-        <v>22.05027852047533</v>
+        <v>33.37299996273222</v>
       </c>
       <c r="R7">
-        <v>198.4525066842779</v>
+        <v>300.35699966459</v>
       </c>
       <c r="S7">
-        <v>0.212378383916559</v>
+        <v>0.1993904929074274</v>
       </c>
       <c r="T7">
-        <v>0.212378383916559</v>
+        <v>0.1993904929074274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H8">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I8">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J8">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.061006666666666</v>
+        <v>9.805585333333333</v>
       </c>
       <c r="N8">
-        <v>27.18302</v>
+        <v>29.416756</v>
       </c>
       <c r="O8">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="P8">
-        <v>0.2664651428501298</v>
+        <v>0.2302360472448257</v>
       </c>
       <c r="Q8">
-        <v>15.46992010904667</v>
+        <v>25.33764884397555</v>
       </c>
       <c r="R8">
-        <v>139.22928098142</v>
+        <v>228.03883959578</v>
       </c>
       <c r="S8">
-        <v>0.1489993257466929</v>
+        <v>0.1513824438245672</v>
       </c>
       <c r="T8">
-        <v>0.1489993257466929</v>
+        <v>0.1513824438245672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.707307</v>
+        <v>2.584001666666667</v>
       </c>
       <c r="H9">
-        <v>5.121921</v>
+        <v>7.752005</v>
       </c>
       <c r="I9">
-        <v>0.5591700443554668</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="J9">
-        <v>0.5591700443554669</v>
+        <v>0.6575097411379373</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08745933333333333</v>
+        <v>0.02644566666666667</v>
       </c>
       <c r="N9">
-        <v>0.262378</v>
+        <v>0.079337</v>
       </c>
       <c r="O9">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="P9">
-        <v>0.002571994989913974</v>
+        <v>0.0006209466903917867</v>
       </c>
       <c r="Q9">
-        <v>0.1493199320153333</v>
+        <v>0.06833564674277778</v>
       </c>
       <c r="R9">
-        <v>1.343879388138</v>
+        <v>0.615020820685</v>
       </c>
       <c r="S9">
-        <v>0.001438182552592235</v>
+        <v>0.0004082784976599626</v>
       </c>
       <c r="T9">
-        <v>0.001438182552592236</v>
+        <v>0.0004082784976599626</v>
       </c>
     </row>
   </sheetData>
